--- a/CLINICA KENNEDY POLICENTRO/20240300420 esponjas sac todas las medidas.xlsx
+++ b/CLINICA KENNEDY POLICENTRO/20240300420 esponjas sac todas las medidas.xlsx
@@ -203,9 +203,6 @@
     <t xml:space="preserve">SUBTOTAL </t>
   </si>
   <si>
-    <t>IVA 12%</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -227,7 +224,10 @@
     <t>LOTE</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00am </t>
+    <t xml:space="preserve">1:00PM </t>
+  </si>
+  <si>
+    <t>IVA 15%</t>
   </si>
 </sst>
 </file>
@@ -747,6 +747,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -782,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="52" zoomScaleNormal="100" zoomScaleSheetLayoutView="52" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="20.149999999999999" customHeight="1"/>
@@ -1574,13 +1574,13 @@
     <row r="2" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1591,7 +1591,7 @@
     <row r="3" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1606,13 +1606,13 @@
     <row r="4" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1623,19 +1623,19 @@
     <row r="5" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1">
@@ -1644,8 +1644,8 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -1654,13 +1654,13 @@
       <c r="B7" s="17"/>
       <c r="C7" s="18">
         <f ca="1">NOW()</f>
-        <v>45373.321665509262</v>
+        <v>45400.401849768517</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="19">
-        <v>20240300420</v>
+        <v>20240400560</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -1701,10 +1701,10 @@
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="22" t="s">
         <v>9</v>
       </c>
@@ -1758,13 +1758,13 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18">
-        <v>45373</v>
+        <v>45400</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -1847,7 +1847,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>27</v>
@@ -1984,11 +1984,11 @@
       <c r="C29" s="34"/>
       <c r="D29" s="35"/>
       <c r="F29" s="47" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G29" s="49">
-        <f>+G28*0.12</f>
-        <v>240</v>
+        <f>+G28*0.15</f>
+        <v>300</v>
       </c>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
@@ -2000,11 +2000,11 @@
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
       <c r="F30" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="49">
         <f>+G28+G29</f>
-        <v>2240</v>
+        <v>2300</v>
       </c>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="34" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="52"/>
     </row>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="37" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="52"/>
     </row>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="42" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="53"/>
     </row>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="45" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="53"/>
     </row>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="48" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="53"/>
     </row>
